--- a/ece2cmor3/resources/list-of-ignored-cmip6-requested-variables-enable-DynVarMIP.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmip6-requested-variables-enable-DynVarMIP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6198" uniqueCount="1836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6188" uniqueCount="1836">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -4486,6 +4486,894 @@
     <t xml:space="preserve">Fraction of soil moisture mass in the liquid phase in each user-defined soil layer (3D variable)</t>
   </si>
   <si>
+    <t xml:space="preserve">nudgincsm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nudging Increment of Water in Soil Moisture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nudging increment refers to an amount added to parts of a model system. The phrase 'nudging_increment_in_X' refers to an increment in quantity X over a time period which should be defined in the bounds of the time coordinate. 'Content' indicates a quantity per unit area. 'Water' means water in all phases. The mass content of water in soil refers to the vertical integral from the surface down to the bottom of the soil model. The 'soil content' of a quantity refers to the vertical integral from the surface down to the bottom of the soil model. For the content between specified levels in the soil, standard names including 'content_of_soil_layer' are used.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nudgincswe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nudging Increment of Water in Snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nudging increment refers to an amount added to parts of a model system. The phrase 'nudging_increment_in_X' refers to an increment in quantity X over a time period which should be defined in the bounds of the time coordinate. The surface called 'surface' means the lower boundary of the atmosphere. 'Amount' means mass per unit area. 'Snow and ice on land' means ice in glaciers, ice caps, ice sheets &amp; shelves, river and lake ice, any other ice on a land surface, such as frozen flood water, and snow lying on such ice or on the land surface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prrsn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Rainfall on Snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fraction of the grid averaged rainfall which falls on the snow pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prsnsn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Snowfall (Including Hail and Graupel) on Snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fraction of the snowfall which falls on the snow pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qgwr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groundwater Recharge from Soil Layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass flux of water from the soil layer into ground water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rivi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Inflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflow of River Water into Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Discharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outflow of River Water from Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rzwc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root Zone Soil Moisture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Content' indicates a quantity per unit area. The content of a soil layer is the vertical integral of the specified quantity within the layer. The quantity with standard name mass_content_of_water_in_soil_layer_defined_by_root_depth is the vertical integral between the surface and the depth to which plant roots penetrate. A coordinate variable or scalar coordinate variable with standard name root_depth can be used to specify the extent of the layer. 'Water' means water in all phases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sblnosn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sublimation of the Snow Free Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate of sublimation of ice into the atmosphere from areas with no snow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snmsl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Flowing out of Snowpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass flow rate of water draining out of the snow pack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snrefr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refreezing of Water in the Snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics. The surface called 'surface' means the lower boundary of the atmosphere. 'Surface snow and ice refreezing flux' means the mass flux of surface  meltwater which refreezes within the snow or firn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snwc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> snow water equivalent intercepted by the vegetation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no represented: equal to zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total water mass of the snowpack (liquid or frozen), averaged over a grid cell and intercepted by the canopy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Water Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not represented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total liquid water storage, other than soil, snow or interception storage (i.e. lakes, river channel or depression storage).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegetation Canopy Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegetation temperature, averaged over all vegetation types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature of Bare Soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface bare soil temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phalf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevhalf time2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure on Model Half-Levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No pressure on vertical staggered levels in IFS #385.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air pressure on model half-levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage Cloud Cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 248.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage cloud cover, including both large-scale and convective cloud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass Fraction of Cloud Liquid Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 246.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes both large-scale and convective cloud. Calculate as the mass of cloud liquid water in the grid cell divided by the mass of air (including the water in all phases) in the grid cells. Precipitating hydrometeors are included ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass Fraction of Cloud Ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 247.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes both large-scale and convective cloud. This is calculated as the mass of cloud ice in the grid cell divided by the mass of air (including the water in all phases) in the grid cell. It includes precipitating hydrometeors ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 130.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastward Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 131.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zonal wind (positive in a eastward direction).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">va</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northward Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 132.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meridional wind (positive in a northward direction).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 133.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific humidity is the mass fraction of water vapor in (moist) air.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 157.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omega (=dp/dt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pa s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 135.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omega (vertical velocity in pressure coordinates, positive downwards)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geopotential Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 129.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geopotential is the sum of the specific gravitational potential energy relative to the geoid and the specific centripetal potential energy. Geopotential height is the geopotential divided by the standard acceleration due to gravity. It is numerically similar to the altitude (or geometric height) and not to the quantity with standard name height, which is relative to the surface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pfull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure at Model Full-Levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 54.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air pressure on model levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. tm5 code name = phalf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site time1 height2m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-Surface Air Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 167.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">near-surface (usually, 2 meter) air temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 139.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature of the lower boundary of the atmosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea Level Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 151.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Air Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. tm5 code name = ps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surface pressure (not mean sea-level pressure), 2-D field to calculate the 3-D pressure field from hybrid coordinates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site time1 height10m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastward Near-Surface Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 165.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastward component of the near-surface (usually, 10 meters)  wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northward Near-Surface Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 166.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northward component of the near surface wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfcWind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-Surface Wind Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 214.128, expression = sqrt(sqr(var165)+sqr(var166))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">near-surface (usually, 10 meters) wind speed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-Surface Relative Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 80.129, expression = 100.*exp(17.62*((var168-273.15)/(var168-30.03)-(var167-273.15)/(var167-30.03)))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-Surface Specific Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 81.129, expression = 1./(1.+1.608*(var134*exp(-17.62*(var168-273.15)/(var168-30.03))/611.-1.))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-surface (usually, 2 meter) specific humidity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 228.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes both liquid and solid phases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prsn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowfall Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 144.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At surface; includes precipitation of all forms of water in the solid phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convective Precipitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 143.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convective precipitation at surface; includes both liquid and solid phases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evspsbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaporation Including Sublimation and Transpiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 182.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaporation at surface (also known as evapotranspiration): flux of water into the atmosphere due to conversion of both liquid and solid phases to vapor (from underlying surface and vegetation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Snow and Ice Sublimation Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 44.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The snow and ice sublimation flux is the loss of snow and ice mass per unit area from the surface resulting from their direct conversion to water vapor that enters the atmosphere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tauu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downward Eastward Wind Stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 180.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downward eastward wind stress at the surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tauv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downward Northward Wind Stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 181.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downward northward wind stress at the surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upward Latent Heat Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 147.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upward Sensible Heat Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 146.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The surface sensible heat flux, also called turbulent heat flux, is the exchange of heat between the surface and the air by motion of air.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downwelling Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 175.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The surface called 'surface' means the lower boundary of the atmosphere. 'longwave' means longwave radiation. Downwelling radiation is radiation from above. It does not mean 'net downward'. When thought of as being incident on a surface, a radiative flux is sometimes called 'irradiance'. In addition, it is identical with the quantity measured by a cosine-collector light-meter and sometimes called 'vector irradiance'. In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upwelling Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 96.129, expression = var177-var175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downwelling Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 169.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface solar irradiance for UV calculations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upwelling Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 95.129, expression = var176-var169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsdscs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downwelling Clear-Sky Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 102.129, expression = var210-var176+var169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface solar irradiance clear sky for UV calculations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsuscs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upwelling Clear-Sky Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upwelling Clear-sky Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rldscs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downwelling Clear-Sky Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 104.129, expression = var211-var177+var175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface downwelling clear-sky longwave radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsdt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Incident Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 212.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortwave radiation incident at the top of the atmosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 97.129, expression = var178-var212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at the top of the atmosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 179.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at the top of the atmosphere (to be compared with satellite measurements)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlutcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Clear-Sky Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 209.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upwelling clear-sky longwave radiation at top of atmosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsutcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Clear-Sky Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 103.129, expression = var208-var212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculated in the absence of clouds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Vapor Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 137.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vertically integrated through the atmospheric column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 164.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total cloud area fraction for the whole atmospheric column, as seen from the surface or the top of the atmosphere. Includes both large-scale and convective cloud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clwvi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condensed Water Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 116.129, expression = var78+var79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass of condensed (liquid + ice) water in the column divided by the area of the column (not just the area of the cloudy portion of the column). Includes precipitating hydrometeors ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clivi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Water Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 79.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass of ice water in the column divided by the area of the column (not just the area of the cloudy portion of the column). Includes precipitating frozen hydrometeors ONLY if the precipitating hydrometeor affects the calculation of radiative transfer in model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Downward Radiative Flux at Top of Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. ifs code name = 98.129, expression = var178+var179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Downward Radiative Flux at Top of Model : I.e., at the top of that portion of the atmosphere where dynamics are explicitly treated by the model. This is reported only if it differs from the net downward radiative flux at the top of the atmosphere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fco2antt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to All Anthropogenic Emissions of CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. lpjg code name = fco2antt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is requested only for the emission-driven coupled carbon climate model runs.  Does not include natural fire sources but, includes all anthropogenic sources, including fossil fuel use, cement production, agricultural burning, and sources associated with anthropogenic land use change excluding forest regrowth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fco2nat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. lpjg code name = fco2nat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is what the atmosphere sees (on its own grid).  This field should be equivalent to the combined natural fluxes of carbon  that account for natural exchanges between the atmosphere and land (nep) or ocean (fgco2) reservoirs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. Grib 126.94 + 126.99 + 126.106 + 126.110  Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhusc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity Due to Convection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. grib 126.106                              Available in IFS: q-tendency from convection: grib 128.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendencies from cumulus convection scheme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhusmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity Due to Model Physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. grib 126.99 + 126.106 + 126.110           Adding all the q-tendencies without advection, thus: grib 128.99 + 128.106 + 128.110.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of specific humidity due to model physics. This includes sources and sinks from parametrized moist physics (e.g. convection, boundary layer, stratiform condensation/evaporation, etc.) and excludes sources and sinks from resolved dynamics or from horizontal or vertical numerical diffusion not associated with model physics.  For example any diffusive mixing by the boundary layer scheme would be included.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tntc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Air Temperature Due to Convection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. grib 126.105                              Available in IFS: T-tendency from convection : grib 128.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tntr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Air Temperature Due to Radiative Heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. grib 126.95                               Available in IFS: T-tendency from radiation: grib 128.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Air Temperature due to Radiative Heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. Alternatively, just estimating the delta T per month. No direct grib code for the totoal T-tendency found. In IFS from Cycle 39R1: add all the T-Tendencies: grib 128.93 + 128.95 + 128.98 + 128.102 + 128.105 + 128.109. But with IFS cycle 36 the T-tendency of gravity wave drag grib 128.102 is bugged until Cycle 39R1. This has been checked by Gijs with ECMWF: https://software.ecmwf.int/wiki/pages/viewpage.action?pageId=97384581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degrees_east</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. This site lon,lat is specifed by the experiment we guess, and should be available in the netcdf file. So far it doesn't seem to be specified in the data request: in the CMIP6_coordinate.json table file the requested": "" is empty for site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitude is positive eastward; its units of degree_east (or equivalent) indicate this explicitly. In a latitude-longitude system defined with respect to a rotated North Pole, the standard name of grid_longitude should be used instead of longitude. Grid longitude is positive in the grid-eastward direction, but its units should be plain degree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degrees_north</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude is positive northward; its units of degree_north (or equivalent) indicate this explicitly. In a latitude-longitude system defined with respect to a rotated North Pole, the standard name of grid_latitude should be used instead of latitude. Grid latitude is positive in the grid-northward direction, but its units should be plain degree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. Grib 126.94 + 126.99 + 126.106 + 126.110       part of MFP3D        Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reffclws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No subhr output. From the AerChem side there is interest in Emon reffclws. This variable is identified as the already available PEXTRA variable with the table 126 grib code 126021, i.e. proposing to add reffclws as 21.126 to ifspar.json.  Note that this variable is not requested by CMIP6 AerChem, and that reffclws not occurs in any CMIP6 data request of the experiments in which any EC-Earth3* configuration participates. See further #564.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Mass Flux out of Atmosphere Due to Gross Primary Production on Land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can not be produced by LPJ-GUESS: Shotest timestep in LPJ-GUESS for this variable is one month currently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Warlind, Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rate of synthesis of biomass from inorganic precursors by autotrophs ('producers') expressed as the mass of carbon which it contains. For example, photosynthesis in plants or phytoplankton. The producers also respire some of this biomass and the difference is referred to as the net primary production. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to Autotrophic (Plant) Respiration on Land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon mass flux per unit area into atmosphere due to autotrophic respiration on land (respiration by producers) [see rh for heterotrophic production]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to Heterotrophic Respiration on Land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon mass flux per unit area into atmosphere due to heterotrophic respiration on land (respiration by consumers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thkcello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocean Model Cell Thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nemo code name = thkcello  but not constant in time in NEMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automatic, Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Thickness' means the vertical extent of a layer. 'Cell' refers to a model grid-cell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMIP,DCPP,PAMIP,PMIP,VIACSAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">masscello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocean Grid-Cell Mass per Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nemo code name = masscello  but not constant in time in NEMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracer grid-cell mass per unit area used for computing tracer budgets. For Boussinesq models with static ocean grid cell thickness, masscello = rhozero*thickcello, where thickcello is static cell thickness and rhozero is constant Boussinesq reference density. More generally, masscello is time dependent and reported as part of Omon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMIP,OMIP</t>
+  </si>
+  <si>
     <t xml:space="preserve">mrros</t>
   </si>
   <si>
@@ -4496,894 +5384,6 @@
   </si>
   <si>
     <t xml:space="preserve">The total surface run off leaving the land portion of the grid cell (excluding drainage through the base of the soil model).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nudgincsm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nudging Increment of Water in Soil Moisture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A nudging increment refers to an amount added to parts of a model system. The phrase 'nudging_increment_in_X' refers to an increment in quantity X over a time period which should be defined in the bounds of the time coordinate. 'Content' indicates a quantity per unit area. 'Water' means water in all phases. The mass content of water in soil refers to the vertical integral from the surface down to the bottom of the soil model. The 'soil content' of a quantity refers to the vertical integral from the surface down to the bottom of the soil model. For the content between specified levels in the soil, standard names including 'content_of_soil_layer' are used.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nudgincswe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nudging Increment of Water in Snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A nudging increment refers to an amount added to parts of a model system. The phrase 'nudging_increment_in_X' refers to an increment in quantity X over a time period which should be defined in the bounds of the time coordinate. The surface called 'surface' means the lower boundary of the atmosphere. 'Amount' means mass per unit area. 'Snow and ice on land' means ice in glaciers, ice caps, ice sheets &amp; shelves, river and lake ice, any other ice on a land surface, such as frozen flood water, and snow lying on such ice or on the land surface.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prrsn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraction of Rainfall on Snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The fraction of the grid averaged rainfall which falls on the snow pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prsnsn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraction of Snowfall (Including Hail and Graupel) on Snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The fraction of the snowfall which falls on the snow pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qgwr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groundwater Recharge from Soil Layer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass flux of water from the soil layer into ground water.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rivi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">River Inflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m3 s-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflow of River Water into Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">River Discharge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outflow of River Water from Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rzwc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Root Zone Soil Moisture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Content' indicates a quantity per unit area. The content of a soil layer is the vertical integral of the specified quantity within the layer. The quantity with standard name mass_content_of_water_in_soil_layer_defined_by_root_depth is the vertical integral between the surface and the depth to which plant roots penetrate. A coordinate variable or scalar coordinate variable with standard name root_depth can be used to specify the extent of the layer. 'Water' means water in all phases.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sblnosn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sublimation of the Snow Free Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate of sublimation of ice into the atmosphere from areas with no snow.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snmsl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Flowing out of Snowpack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass flow rate of water draining out of the snow pack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snrefr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refreezing of Water in the Snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics. The surface called 'surface' means the lower boundary of the atmosphere. 'Surface snow and ice refreezing flux' means the mass flux of surface  meltwater which refreezes within the snow or firn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snwc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> snow water equivalent intercepted by the vegetation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no represented: equal to zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total water mass of the snowpack (liquid or frozen), averaged over a grid cell and intercepted by the canopy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Water Storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not represented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total liquid water storage, other than soil, snow or interception storage (i.e. lakes, river channel or depression storage).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tcs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vegetation Canopy Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vegetation temperature, averaged over all vegetation types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tgs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature of Bare Soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface bare soil temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phalf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude alevhalf time2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pressure on Model Half-Levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No pressure on vertical staggered levels in IFS #385.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">automatic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air pressure on model half-levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage Cloud Cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 248.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage cloud cover, including both large-scale and convective cloud.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Fraction of Cloud Liquid Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 246.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Includes both large-scale and convective cloud. Calculate as the mass of cloud liquid water in the grid cell divided by the mass of air (including the water in all phases) in the grid cells. Precipitating hydrometeors are included ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Fraction of Cloud Ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 247.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Includes both large-scale and convective cloud. This is calculated as the mass of cloud ice in the grid cell divided by the mass of air (including the water in all phases) in the grid cell. It includes precipitating hydrometeors ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 130.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastward Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 131.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zonal wind (positive in a eastward direction).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">va</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northward Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 132.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meridional wind (positive in a northward direction).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 133.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific humidity is the mass fraction of water vapor in (moist) air.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relative Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 157.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omega (=dp/dt)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pa s-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 135.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omega (vertical velocity in pressure coordinates, positive downwards)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geopotential Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 129.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geopotential is the sum of the specific gravitational potential energy relative to the geoid and the specific centripetal potential energy. Geopotential height is the geopotential divided by the standard acceleration due to gravity. It is numerically similar to the altitude (or geometric height) and not to the quantity with standard name height, which is relative to the surface.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pfull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pressure at Model Full-Levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 54.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air pressure on model levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. tm5 code name = phalf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site time1 height2m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-Surface Air Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 167.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">near-surface (usually, 2 meter) air temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 139.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature of the lower boundary of the atmosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sea Level Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 151.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Air Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. tm5 code name = ps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surface pressure (not mean sea-level pressure), 2-D field to calculate the 3-D pressure field from hybrid coordinates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site time1 height10m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastward Near-Surface Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 165.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastward component of the near-surface (usually, 10 meters)  wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northward Near-Surface Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 166.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northward component of the near surface wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfcWind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-Surface Wind Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 214.128, expression = sqrt(sqr(var165)+sqr(var166))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">near-surface (usually, 10 meters) wind speed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-Surface Relative Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 80.129, expression = 100.*exp(17.62*((var168-273.15)/(var168-30.03)-(var167-273.15)/(var167-30.03)))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">huss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-Surface Specific Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 81.129, expression = 1./(1.+1.608*(var134*exp(-17.62*(var168-273.15)/(var168-30.03))/611.-1.))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-surface (usually, 2 meter) specific humidity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precipitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 228.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">includes both liquid and solid phases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prsn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snowfall Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 144.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At surface; includes precipitation of all forms of water in the solid phase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convective Precipitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 143.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convective precipitation at surface; includes both liquid and solid phases.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evspsbl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaporation Including Sublimation and Transpiration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 182.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaporation at surface (also known as evapotranspiration): flux of water into the atmosphere due to conversion of both liquid and solid phases to vapor (from underlying surface and vegetation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sbl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Snow and Ice Sublimation Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 44.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The snow and ice sublimation flux is the loss of snow and ice mass per unit area from the surface resulting from their direct conversion to water vapor that enters the atmosphere.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tauu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downward Eastward Wind Stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 180.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downward eastward wind stress at the surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tauv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downward Northward Wind Stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 181.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downward northward wind stress at the surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hfls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upward Latent Heat Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 147.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hfss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upward Sensible Heat Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 146.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The surface sensible heat flux, also called turbulent heat flux, is the exchange of heat between the surface and the air by motion of air.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downwelling Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 175.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The surface called 'surface' means the lower boundary of the atmosphere. 'longwave' means longwave radiation. Downwelling radiation is radiation from above. It does not mean 'net downward'. When thought of as being incident on a surface, a radiative flux is sometimes called 'irradiance'. In addition, it is identical with the quantity measured by a cosine-collector light-meter and sometimes called 'vector irradiance'. In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upwelling Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 96.129, expression = var177-var175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downwelling Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 169.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface solar irradiance for UV calculations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upwelling Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 95.129, expression = var176-var169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsdscs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downwelling Clear-Sky Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 102.129, expression = var210-var176+var169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface solar irradiance clear sky for UV calculations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsuscs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upwelling Clear-Sky Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upwelling Clear-sky Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rldscs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downwelling Clear-Sky Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 104.129, expression = var211-var177+var175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface downwelling clear-sky longwave radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsdt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Incident Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 212.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shortwave radiation incident at the top of the atmosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 97.129, expression = var178-var212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at the top of the atmosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 179.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at the top of the atmosphere (to be compared with satellite measurements)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlutcs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Clear-Sky Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 209.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upwelling clear-sky longwave radiation at top of atmosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsutcs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Clear-Sky Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 103.129, expression = var208-var212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculated in the absence of clouds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Vapor Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 137.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vertically integrated through the atmospheric column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 164.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total cloud area fraction for the whole atmospheric column, as seen from the surface or the top of the atmosphere. Includes both large-scale and convective cloud.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clwvi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condensed Water Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 116.129, expression = var78+var79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass of condensed (liquid + ice) water in the column divided by the area of the column (not just the area of the cloudy portion of the column). Includes precipitating hydrometeors ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clivi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice Water Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 79.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass of ice water in the column divided by the area of the column (not just the area of the cloudy portion of the column). Includes precipitating frozen hydrometeors ONLY if the precipitating hydrometeor affects the calculation of radiative transfer in model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rtmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Downward Radiative Flux at Top of Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. ifs code name = 98.129, expression = var178+var179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Downward Radiative Flux at Top of Model : I.e., at the top of that portion of the atmosphere where dynamics are explicitly treated by the model. This is reported only if it differs from the net downward radiative flux at the top of the atmosphere.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fco2antt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to All Anthropogenic Emissions of CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. lpjg code name = fco2antt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is requested only for the emission-driven coupled carbon climate model runs.  Does not include natural fire sources but, includes all anthropogenic sources, including fossil fuel use, cement production, agricultural burning, and sources associated with anthropogenic land use change excluding forest regrowth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fco2nat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. lpjg code name = fco2nat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is what the atmosphere sees (on its own grid).  This field should be equivalent to the combined natural fluxes of carbon  that account for natural exchanges between the atmosphere and land (nep) or ocean (fgco2) reservoirs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. Grib 126.94 + 126.99 + 126.106 + 126.110  Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhusc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity Due to Convection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. grib 126.106                              Available in IFS: q-tendency from convection: grib 128.106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendencies from cumulus convection scheme.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhusmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity Due to Model Physics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. grib 126.99 + 126.106 + 126.110           Adding all the q-tendencies without advection, thus: grib 128.99 + 128.106 + 128.110.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of specific humidity due to model physics. This includes sources and sinks from parametrized moist physics (e.g. convection, boundary layer, stratiform condensation/evaporation, etc.) and excludes sources and sinks from resolved dynamics or from horizontal or vertical numerical diffusion not associated with model physics.  For example any diffusive mixing by the boundary layer scheme would be included.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tntc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Air Temperature Due to Convection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. grib 126.105                              Available in IFS: T-tendency from convection : grib 128.105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tntr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Air Temperature Due to Radiative Heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. grib 126.95                               Available in IFS: T-tendency from radiation: grib 128.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Air Temperature due to Radiative Heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. Alternatively, just estimating the delta T per month. No direct grib code for the totoal T-tendency found. In IFS from Cycle 39R1: add all the T-Tendencies: grib 128.93 + 128.95 + 128.98 + 128.102 + 128.105 + 128.109. But with IFS cycle 36 the T-tendency of gravity wave drag grib 128.102 is bugged until Cycle 39R1. This has been checked by Gijs with ECMWF: https://software.ecmwf.int/wiki/pages/viewpage.action?pageId=97384581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degrees_east</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. This site lon,lat is specifed by the experiment we guess, and should be available in the netcdf file. So far it doesn't seem to be specified in the data request: in the CMIP6_coordinate.json table file the requested": "" is empty for site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude is positive eastward; its units of degree_east (or equivalent) indicate this explicitly. In a latitude-longitude system defined with respect to a rotated North Pole, the standard name of grid_longitude should be used instead of longitude. Grid longitude is positive in the grid-eastward direction, but its units should be plain degree.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degrees_north</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude is positive northward; its units of degree_north (or equivalent) indicate this explicitly. In a latitude-longitude system defined with respect to a rotated North Pole, the standard name of grid_latitude should be used instead of latitude. Grid latitude is positive in the grid-northward direction, but its units should be plain degree.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. Grib 126.94 + 126.99 + 126.106 + 126.110       part of MFP3D        Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reffclws</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No subhr output. From the AerChem side there is interest in Emon reffclws. This variable is identified as the already available PEXTRA variable with the table 126 grib code 126021, i.e. proposing to add reffclws as 21.126 to ifspar.json.  Note that this variable is not requested by CMIP6 AerChem, and that reffclws not occurs in any CMIP6 data request of the experiments in which any EC-Earth3* configuration participates. See further #564.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Mass Flux out of Atmosphere Due to Gross Primary Production on Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can not be produced by LPJ-GUESS: Shotest timestep in LPJ-GUESS for this variable is one month currently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Warlind, Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The rate of synthesis of biomass from inorganic precursors by autotrophs ('producers') expressed as the mass of carbon which it contains. For example, photosynthesis in plants or phytoplankton. The producers also respire some of this biomass and the difference is referred to as the net primary production. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to Autotrophic (Plant) Respiration on Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon mass flux per unit area into atmosphere due to autotrophic respiration on land (respiration by producers) [see rh for heterotrophic production]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to Heterotrophic Respiration on Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon mass flux per unit area into atmosphere due to heterotrophic respiration on land (respiration by consumers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thkcello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocean Model Cell Thickness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nemo code name = thkcello  but not constant in time in NEMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">automatic, Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Thickness' means the vertical extent of a layer. 'Cell' refers to a model grid-cell.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMIP,DCPP,PAMIP,PMIP,VIACSAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">masscello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocean Grid-Cell Mass per Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nemo code name = masscello  but not constant in time in NEMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracer grid-cell mass per unit area used for computing tracer budgets. For Boussinesq models with static ocean grid cell thickness, masscello = rhozero*thickcello, where thickcello is static cell thickness and rhozero is constant Boussinesq reference density. More generally, masscello is time dependent and reported as part of Omon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMIP,OMIP</t>
   </si>
   <si>
     <t xml:space="preserve">AerChemMIP,C4MIP,CDRMIP,CFMIP,CMIP,FAFMIP,GMMIP,GeoMIP,HighResMIP,LS3MIP,LUMIP,PMIP,RFMIP,VIACSAB,VolMIP</t>
@@ -5647,8 +5647,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A523" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A543" activeCellId="0" sqref="A543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23369,7 +23369,7 @@
         <v>936</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>1488</v>
+        <v>1176</v>
       </c>
       <c r="C543" s="0" t="s">
         <v>13</v>
@@ -23378,22 +23378,22 @@
         <v>151</v>
       </c>
       <c r="E543" s="0" t="s">
-        <v>1489</v>
+        <v>1177</v>
       </c>
       <c r="F543" s="0" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="G543" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H543" s="0" t="s">
-        <v>1105</v>
+        <v>1426</v>
       </c>
       <c r="I543" s="0" t="s">
-        <v>1490</v>
+        <v>1427</v>
       </c>
       <c r="J543" s="0" t="s">
-        <v>1491</v>
+        <v>1180</v>
       </c>
       <c r="K543" s="0" t="s">
         <v>20</v>
@@ -23404,7 +23404,7 @@
         <v>936</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>1176</v>
+        <v>1488</v>
       </c>
       <c r="C544" s="0" t="s">
         <v>13</v>
@@ -23413,7 +23413,7 @@
         <v>151</v>
       </c>
       <c r="E544" s="0" t="s">
-        <v>1177</v>
+        <v>1489</v>
       </c>
       <c r="F544" s="0" t="s">
         <v>28</v>
@@ -23428,7 +23428,7 @@
         <v>1427</v>
       </c>
       <c r="J544" s="0" t="s">
-        <v>1180</v>
+        <v>1490</v>
       </c>
       <c r="K544" s="0" t="s">
         <v>20</v>
@@ -23439,7 +23439,7 @@
         <v>936</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C545" s="0" t="s">
         <v>13</v>
@@ -23448,7 +23448,7 @@
         <v>151</v>
       </c>
       <c r="E545" s="0" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F545" s="0" t="s">
         <v>28</v>
@@ -23463,7 +23463,7 @@
         <v>1427</v>
       </c>
       <c r="J545" s="0" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="K545" s="0" t="s">
         <v>20</v>
@@ -23474,7 +23474,7 @@
         <v>936</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>1495</v>
+        <v>1012</v>
       </c>
       <c r="C546" s="0" t="s">
         <v>13</v>
@@ -23483,22 +23483,22 @@
         <v>151</v>
       </c>
       <c r="E546" s="0" t="s">
-        <v>1496</v>
+        <v>1013</v>
       </c>
       <c r="F546" s="0" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="G546" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H546" s="0" t="s">
-        <v>1426</v>
+        <v>1014</v>
       </c>
       <c r="I546" s="0" t="s">
-        <v>1427</v>
+        <v>56</v>
       </c>
       <c r="J546" s="0" t="s">
-        <v>1497</v>
+        <v>719</v>
       </c>
       <c r="K546" s="0" t="s">
         <v>20</v>
@@ -23509,7 +23509,7 @@
         <v>936</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>1012</v>
+        <v>1494</v>
       </c>
       <c r="C547" s="0" t="s">
         <v>13</v>
@@ -23518,22 +23518,22 @@
         <v>151</v>
       </c>
       <c r="E547" s="0" t="s">
-        <v>1013</v>
+        <v>1495</v>
       </c>
       <c r="F547" s="0" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="G547" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H547" s="0" t="s">
-        <v>1014</v>
+        <v>1423</v>
       </c>
       <c r="I547" s="0" t="s">
-        <v>56</v>
+        <v>1179</v>
       </c>
       <c r="J547" s="0" t="s">
-        <v>719</v>
+        <v>1496</v>
       </c>
       <c r="K547" s="0" t="s">
         <v>20</v>
@@ -23544,7 +23544,7 @@
         <v>936</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C548" s="0" t="s">
         <v>13</v>
@@ -23553,7 +23553,7 @@
         <v>151</v>
       </c>
       <c r="E548" s="0" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F548" s="0" t="s">
         <v>13</v>
@@ -23568,7 +23568,7 @@
         <v>1179</v>
       </c>
       <c r="J548" s="0" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="K548" s="0" t="s">
         <v>20</v>
@@ -23579,7 +23579,7 @@
         <v>936</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C549" s="0" t="s">
         <v>13</v>
@@ -23588,22 +23588,22 @@
         <v>151</v>
       </c>
       <c r="E549" s="0" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="F549" s="0" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="G549" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H549" s="0" t="s">
-        <v>1423</v>
+        <v>1441</v>
       </c>
       <c r="I549" s="0" t="s">
         <v>1179</v>
       </c>
       <c r="J549" s="0" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="K549" s="0" t="s">
         <v>20</v>
@@ -23614,7 +23614,7 @@
         <v>936</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C550" s="0" t="s">
         <v>13</v>
@@ -23623,10 +23623,10 @@
         <v>151</v>
       </c>
       <c r="E550" s="0" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F550" s="0" t="s">
         <v>1505</v>
-      </c>
-      <c r="F550" s="0" t="s">
-        <v>153</v>
       </c>
       <c r="G550" s="0" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>1508</v>
       </c>
       <c r="F551" s="0" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="G551" s="0" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>1179</v>
       </c>
       <c r="J551" s="0" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="K551" s="0" t="s">
         <v>20</v>
@@ -23684,7 +23684,7 @@
         <v>936</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C552" s="0" t="s">
         <v>13</v>
@@ -23693,22 +23693,22 @@
         <v>151</v>
       </c>
       <c r="E552" s="0" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F552" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G552" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H552" s="0" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I552" s="0" t="s">
+        <v>1427</v>
+      </c>
+      <c r="J552" s="0" t="s">
         <v>1512</v>
-      </c>
-      <c r="F552" s="0" t="s">
-        <v>1509</v>
-      </c>
-      <c r="G552" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H552" s="0" t="s">
-        <v>1441</v>
-      </c>
-      <c r="I552" s="0" t="s">
-        <v>1179</v>
-      </c>
-      <c r="J552" s="0" t="s">
-        <v>1513</v>
       </c>
       <c r="K552" s="0" t="s">
         <v>20</v>
@@ -23719,7 +23719,7 @@
         <v>936</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C553" s="0" t="s">
         <v>13</v>
@@ -23728,22 +23728,22 @@
         <v>151</v>
       </c>
       <c r="E553" s="0" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F553" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G553" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H553" s="0" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I553" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="J553" s="0" t="s">
         <v>1515</v>
-      </c>
-      <c r="F553" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G553" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H553" s="0" t="s">
-        <v>1426</v>
-      </c>
-      <c r="I553" s="0" t="s">
-        <v>1427</v>
-      </c>
-      <c r="J553" s="0" t="s">
-        <v>1516</v>
       </c>
       <c r="K553" s="0" t="s">
         <v>20</v>
@@ -23754,7 +23754,7 @@
         <v>936</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C554" s="0" t="s">
         <v>13</v>
@@ -23763,7 +23763,7 @@
         <v>151</v>
       </c>
       <c r="E554" s="0" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="F554" s="0" t="s">
         <v>153</v>
@@ -23772,13 +23772,13 @@
         <v>0</v>
       </c>
       <c r="H554" s="0" t="s">
-        <v>1468</v>
+        <v>1426</v>
       </c>
       <c r="I554" s="0" t="s">
-        <v>1179</v>
+        <v>1427</v>
       </c>
       <c r="J554" s="0" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="K554" s="0" t="s">
         <v>20</v>
@@ -23789,7 +23789,7 @@
         <v>936</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C555" s="0" t="s">
         <v>13</v>
@@ -23798,7 +23798,7 @@
         <v>151</v>
       </c>
       <c r="E555" s="0" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="F555" s="0" t="s">
         <v>153</v>
@@ -23807,13 +23807,13 @@
         <v>0</v>
       </c>
       <c r="H555" s="0" t="s">
-        <v>1426</v>
+        <v>1468</v>
       </c>
       <c r="I555" s="0" t="s">
-        <v>1427</v>
+        <v>1179</v>
       </c>
       <c r="J555" s="0" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="K555" s="0" t="s">
         <v>20</v>
@@ -23824,7 +23824,7 @@
         <v>936</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C556" s="0" t="s">
         <v>13</v>
@@ -23833,16 +23833,16 @@
         <v>151</v>
       </c>
       <c r="E556" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F556" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G556" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H556" s="0" t="s">
         <v>1524</v>
-      </c>
-      <c r="F556" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="G556" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H556" s="0" t="s">
-        <v>1468</v>
       </c>
       <c r="I556" s="0" t="s">
         <v>1179</v>
@@ -23906,19 +23906,19 @@
         <v>1531</v>
       </c>
       <c r="F558" s="0" t="s">
-        <v>28</v>
+        <v>804</v>
       </c>
       <c r="G558" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H558" s="0" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I558" s="0" t="s">
+        <v>1427</v>
+      </c>
+      <c r="J558" s="0" t="s">
         <v>1532</v>
-      </c>
-      <c r="I558" s="0" t="s">
-        <v>1179</v>
-      </c>
-      <c r="J558" s="0" t="s">
-        <v>1533</v>
       </c>
       <c r="K558" s="0" t="s">
         <v>20</v>
@@ -23929,7 +23929,7 @@
         <v>936</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C559" s="0" t="s">
         <v>13</v>
@@ -23938,7 +23938,7 @@
         <v>151</v>
       </c>
       <c r="E559" s="0" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F559" s="0" t="s">
         <v>804</v>
@@ -23953,7 +23953,7 @@
         <v>1427</v>
       </c>
       <c r="J559" s="0" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="K559" s="0" t="s">
         <v>20</v>
@@ -23964,7 +23964,7 @@
         <v>936</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>1537</v>
+        <v>1327</v>
       </c>
       <c r="C560" s="0" t="s">
         <v>13</v>
@@ -23973,79 +23973,79 @@
         <v>151</v>
       </c>
       <c r="E560" s="0" t="s">
-        <v>1538</v>
+        <v>1328</v>
       </c>
       <c r="F560" s="0" t="s">
-        <v>804</v>
+        <v>41</v>
       </c>
       <c r="G560" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H560" s="0" t="s">
-        <v>1426</v>
+        <v>1441</v>
       </c>
       <c r="I560" s="0" t="s">
-        <v>1427</v>
+        <v>1179</v>
       </c>
       <c r="J560" s="0" t="s">
-        <v>1539</v>
+        <v>1330</v>
       </c>
       <c r="K560" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="0" t="s">
-        <v>936</v>
-      </c>
-      <c r="B561" s="0" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C561" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D561" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="E561" s="0" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F561" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G561" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H561" s="0" t="s">
-        <v>1441</v>
-      </c>
-      <c r="I561" s="0" t="s">
-        <v>1179</v>
-      </c>
-      <c r="J561" s="0" t="s">
-        <v>1330</v>
-      </c>
-      <c r="K561" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="B563" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C563" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D563" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E563" s="0" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F563" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="G563" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H563" s="0" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I563" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J563" s="0" t="s">
+        <v>1541</v>
+      </c>
+      <c r="K563" s="0" t="s">
+        <v>699</v>
+      </c>
+    </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>684</v>
+        <v>1006</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="C564" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D564" s="0" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="E564" s="0" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="F564" s="0" t="s">
         <v>232</v>
@@ -24054,55 +24054,55 @@
         <v>1386</v>
       </c>
       <c r="H564" s="0" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="I564" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J564" s="0" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="K564" s="0" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="0" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B565" s="0" t="s">
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B567" s="0" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C567" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D567" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="E567" s="0" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F567" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G567" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H567" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I567" s="0" t="s">
         <v>1540</v>
       </c>
-      <c r="C565" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D565" s="0" t="s">
-        <v>1541</v>
-      </c>
-      <c r="E565" s="0" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F565" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="G565" s="0" t="s">
-        <v>1386</v>
-      </c>
-      <c r="H565" s="0" t="s">
-        <v>1543</v>
-      </c>
-      <c r="I565" s="0" t="s">
-        <v>1544</v>
-      </c>
-      <c r="J565" s="0" t="s">
+      <c r="J567" s="0" t="s">
         <v>1545</v>
       </c>
-      <c r="K565" s="0" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="K567" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
         <v>284</v>
@@ -24120,7 +24120,7 @@
         <v>1547</v>
       </c>
       <c r="F568" s="0" t="s">
-        <v>16</v>
+        <v>1090</v>
       </c>
       <c r="G568" s="0" t="s">
         <v>1386</v>
@@ -24129,7 +24129,7 @@
         <v>1548</v>
       </c>
       <c r="I568" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J568" s="0" t="s">
         <v>1549</v>
@@ -24164,7 +24164,7 @@
         <v>1552</v>
       </c>
       <c r="I569" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J569" s="0" t="s">
         <v>1553</v>
@@ -24190,7 +24190,7 @@
         <v>1555</v>
       </c>
       <c r="F570" s="0" t="s">
-        <v>1090</v>
+        <v>804</v>
       </c>
       <c r="G570" s="0" t="s">
         <v>1386</v>
@@ -24199,10 +24199,10 @@
         <v>1556</v>
       </c>
       <c r="I570" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J570" s="0" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="K570" s="0" t="s">
         <v>286</v>
@@ -24213,7 +24213,7 @@
         <v>284</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C571" s="0" t="s">
         <v>13</v>
@@ -24222,22 +24222,22 @@
         <v>293</v>
       </c>
       <c r="E571" s="0" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F571" s="0" t="s">
-        <v>804</v>
+        <v>724</v>
       </c>
       <c r="G571" s="0" t="s">
         <v>1386</v>
       </c>
       <c r="H571" s="0" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I571" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J571" s="0" t="s">
         <v>1560</v>
-      </c>
-      <c r="I571" s="0" t="s">
-        <v>1544</v>
-      </c>
-      <c r="J571" s="0" t="s">
-        <v>1559</v>
       </c>
       <c r="K571" s="0" t="s">
         <v>286</v>
@@ -24269,7 +24269,7 @@
         <v>1563</v>
       </c>
       <c r="I572" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J572" s="0" t="s">
         <v>1564</v>
@@ -24295,7 +24295,7 @@
         <v>1566</v>
       </c>
       <c r="F573" s="0" t="s">
-        <v>724</v>
+        <v>13</v>
       </c>
       <c r="G573" s="0" t="s">
         <v>1386</v>
@@ -24304,7 +24304,7 @@
         <v>1567</v>
       </c>
       <c r="I573" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J573" s="0" t="s">
         <v>1568</v>
@@ -24330,7 +24330,7 @@
         <v>1570</v>
       </c>
       <c r="F574" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G574" s="0" t="s">
         <v>1386</v>
@@ -24339,10 +24339,10 @@
         <v>1571</v>
       </c>
       <c r="I574" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J574" s="0" t="s">
-        <v>1572</v>
+        <v>952</v>
       </c>
       <c r="K574" s="0" t="s">
         <v>286</v>
@@ -24353,7 +24353,7 @@
         <v>284</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C575" s="0" t="s">
         <v>13</v>
@@ -24362,10 +24362,10 @@
         <v>293</v>
       </c>
       <c r="E575" s="0" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F575" s="0" t="s">
         <v>1574</v>
-      </c>
-      <c r="F575" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="G575" s="0" t="s">
         <v>1386</v>
@@ -24374,10 +24374,10 @@
         <v>1575</v>
       </c>
       <c r="I575" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J575" s="0" t="s">
-        <v>952</v>
+        <v>1576</v>
       </c>
       <c r="K575" s="0" t="s">
         <v>286</v>
@@ -24388,7 +24388,7 @@
         <v>284</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="C576" s="0" t="s">
         <v>13</v>
@@ -24397,10 +24397,10 @@
         <v>293</v>
       </c>
       <c r="E576" s="0" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="F576" s="0" t="s">
-        <v>1578</v>
+        <v>41</v>
       </c>
       <c r="G576" s="0" t="s">
         <v>1386</v>
@@ -24409,7 +24409,7 @@
         <v>1579</v>
       </c>
       <c r="I576" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J576" s="0" t="s">
         <v>1580</v>
@@ -24435,7 +24435,7 @@
         <v>1582</v>
       </c>
       <c r="F577" s="0" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="G577" s="0" t="s">
         <v>1386</v>
@@ -24444,7 +24444,7 @@
         <v>1583</v>
       </c>
       <c r="I577" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J577" s="0" t="s">
         <v>1584</v>
@@ -24458,16 +24458,16 @@
         <v>284</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>1585</v>
+        <v>1536</v>
       </c>
       <c r="C578" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D578" s="0" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="E578" s="0" t="s">
-        <v>1586</v>
+        <v>1538</v>
       </c>
       <c r="F578" s="0" t="s">
         <v>232</v>
@@ -24476,13 +24476,13 @@
         <v>1386</v>
       </c>
       <c r="H578" s="0" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="I578" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J578" s="0" t="s">
-        <v>1588</v>
+        <v>1541</v>
       </c>
       <c r="K578" s="0" t="s">
         <v>286</v>
@@ -24493,19 +24493,19 @@
         <v>284</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>1540</v>
+        <v>1586</v>
       </c>
       <c r="C579" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D579" s="0" t="s">
-        <v>306</v>
+        <v>1587</v>
       </c>
       <c r="E579" s="0" t="s">
-        <v>1542</v>
+        <v>1588</v>
       </c>
       <c r="F579" s="0" t="s">
-        <v>232</v>
+        <v>804</v>
       </c>
       <c r="G579" s="0" t="s">
         <v>1386</v>
@@ -24514,10 +24514,10 @@
         <v>1589</v>
       </c>
       <c r="I579" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J579" s="0" t="s">
-        <v>1545</v>
+        <v>1590</v>
       </c>
       <c r="K579" s="0" t="s">
         <v>286</v>
@@ -24528,13 +24528,13 @@
         <v>284</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C580" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D580" s="0" t="s">
-        <v>1591</v>
+        <v>285</v>
       </c>
       <c r="E580" s="0" t="s">
         <v>1592</v>
@@ -24549,7 +24549,7 @@
         <v>1593</v>
       </c>
       <c r="I580" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J580" s="0" t="s">
         <v>1594</v>
@@ -24575,7 +24575,7 @@
         <v>1596</v>
       </c>
       <c r="F581" s="0" t="s">
-        <v>804</v>
+        <v>232</v>
       </c>
       <c r="G581" s="0" t="s">
         <v>1386</v>
@@ -24584,10 +24584,10 @@
         <v>1597</v>
       </c>
       <c r="I581" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J581" s="0" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="K581" s="0" t="s">
         <v>286</v>
@@ -24598,7 +24598,7 @@
         <v>284</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C582" s="0" t="s">
         <v>13</v>
@@ -24607,7 +24607,7 @@
         <v>285</v>
       </c>
       <c r="E582" s="0" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="F582" s="0" t="s">
         <v>232</v>
@@ -24616,13 +24616,13 @@
         <v>1386</v>
       </c>
       <c r="H582" s="0" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I582" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J582" s="0" t="s">
         <v>1601</v>
-      </c>
-      <c r="I582" s="0" t="s">
-        <v>1544</v>
-      </c>
-      <c r="J582" s="0" t="s">
-        <v>1600</v>
       </c>
       <c r="K582" s="0" t="s">
         <v>286</v>
@@ -24639,25 +24639,25 @@
         <v>13</v>
       </c>
       <c r="D583" s="0" t="s">
-        <v>285</v>
+        <v>1603</v>
       </c>
       <c r="E583" s="0" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="F583" s="0" t="s">
-        <v>232</v>
+        <v>724</v>
       </c>
       <c r="G583" s="0" t="s">
         <v>1386</v>
       </c>
       <c r="H583" s="0" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="I583" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J583" s="0" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="K583" s="0" t="s">
         <v>286</v>
@@ -24668,13 +24668,13 @@
         <v>284</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C584" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D584" s="0" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="E584" s="0" t="s">
         <v>1608</v>
@@ -24689,7 +24689,7 @@
         <v>1609</v>
       </c>
       <c r="I584" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J584" s="0" t="s">
         <v>1610</v>
@@ -24709,7 +24709,7 @@
         <v>13</v>
       </c>
       <c r="D585" s="0" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="E585" s="0" t="s">
         <v>1612</v>
@@ -24724,7 +24724,7 @@
         <v>1613</v>
       </c>
       <c r="I585" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J585" s="0" t="s">
         <v>1614</v>
@@ -24744,13 +24744,13 @@
         <v>13</v>
       </c>
       <c r="D586" s="0" t="s">
-        <v>1607</v>
+        <v>1587</v>
       </c>
       <c r="E586" s="0" t="s">
         <v>1616</v>
       </c>
       <c r="F586" s="0" t="s">
-        <v>724</v>
+        <v>16</v>
       </c>
       <c r="G586" s="0" t="s">
         <v>1386</v>
@@ -24759,10 +24759,10 @@
         <v>1617</v>
       </c>
       <c r="I586" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J586" s="0" t="s">
-        <v>1618</v>
+        <v>952</v>
       </c>
       <c r="K586" s="0" t="s">
         <v>286</v>
@@ -24773,31 +24773,31 @@
         <v>284</v>
       </c>
       <c r="B587" s="0" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C587" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D587" s="0" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E587" s="0" t="s">
         <v>1619</v>
       </c>
-      <c r="C587" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D587" s="0" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E587" s="0" t="s">
-        <v>1620</v>
-      </c>
       <c r="F587" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G587" s="0" t="s">
         <v>1386</v>
       </c>
       <c r="H587" s="0" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I587" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J587" s="0" t="s">
         <v>1621</v>
-      </c>
-      <c r="I587" s="0" t="s">
-        <v>1544</v>
-      </c>
-      <c r="J587" s="0" t="s">
-        <v>952</v>
       </c>
       <c r="K587" s="0" t="s">
         <v>286</v>
@@ -24814,13 +24814,13 @@
         <v>13</v>
       </c>
       <c r="D588" s="0" t="s">
-        <v>1591</v>
+        <v>285</v>
       </c>
       <c r="E588" s="0" t="s">
         <v>1623</v>
       </c>
       <c r="F588" s="0" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="G588" s="0" t="s">
         <v>1386</v>
@@ -24829,7 +24829,7 @@
         <v>1624</v>
       </c>
       <c r="I588" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J588" s="0" t="s">
         <v>1625</v>
@@ -24864,7 +24864,7 @@
         <v>1628</v>
       </c>
       <c r="I589" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J589" s="0" t="s">
         <v>1629</v>
@@ -24899,7 +24899,7 @@
         <v>1632</v>
       </c>
       <c r="I590" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J590" s="0" t="s">
         <v>1633</v>
@@ -24934,7 +24934,7 @@
         <v>1636</v>
       </c>
       <c r="I591" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J591" s="0" t="s">
         <v>1637</v>
@@ -24969,7 +24969,7 @@
         <v>1640</v>
       </c>
       <c r="I592" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J592" s="0" t="s">
         <v>1641</v>
@@ -24995,7 +24995,7 @@
         <v>1643</v>
       </c>
       <c r="F593" s="0" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="G593" s="0" t="s">
         <v>1386</v>
@@ -25004,7 +25004,7 @@
         <v>1644</v>
       </c>
       <c r="I593" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J593" s="0" t="s">
         <v>1645</v>
@@ -25039,7 +25039,7 @@
         <v>1648</v>
       </c>
       <c r="I594" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J594" s="0" t="s">
         <v>1649</v>
@@ -25065,7 +25065,7 @@
         <v>1651</v>
       </c>
       <c r="F595" s="0" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="G595" s="0" t="s">
         <v>1386</v>
@@ -25074,10 +25074,10 @@
         <v>1652</v>
       </c>
       <c r="I595" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J595" s="0" t="s">
-        <v>1653</v>
+        <v>1150</v>
       </c>
       <c r="K595" s="0" t="s">
         <v>286</v>
@@ -25088,7 +25088,7 @@
         <v>284</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C596" s="0" t="s">
         <v>13</v>
@@ -25097,7 +25097,7 @@
         <v>285</v>
       </c>
       <c r="E596" s="0" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="F596" s="0" t="s">
         <v>309</v>
@@ -25106,13 +25106,13 @@
         <v>1386</v>
       </c>
       <c r="H596" s="0" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I596" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J596" s="0" t="s">
         <v>1656</v>
-      </c>
-      <c r="I596" s="0" t="s">
-        <v>1544</v>
-      </c>
-      <c r="J596" s="0" t="s">
-        <v>1150</v>
       </c>
       <c r="K596" s="0" t="s">
         <v>286</v>
@@ -25144,7 +25144,7 @@
         <v>1659</v>
       </c>
       <c r="I597" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J597" s="0" t="s">
         <v>1660</v>
@@ -25179,10 +25179,10 @@
         <v>1663</v>
       </c>
       <c r="I598" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J598" s="0" t="s">
-        <v>1664</v>
+        <v>1260</v>
       </c>
       <c r="K598" s="0" t="s">
         <v>286</v>
@@ -25193,7 +25193,7 @@
         <v>284</v>
       </c>
       <c r="B599" s="0" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C599" s="0" t="s">
         <v>13</v>
@@ -25202,7 +25202,7 @@
         <v>285</v>
       </c>
       <c r="E599" s="0" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="F599" s="0" t="s">
         <v>309</v>
@@ -25211,13 +25211,13 @@
         <v>1386</v>
       </c>
       <c r="H599" s="0" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I599" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J599" s="0" t="s">
         <v>1667</v>
-      </c>
-      <c r="I599" s="0" t="s">
-        <v>1544</v>
-      </c>
-      <c r="J599" s="0" t="s">
-        <v>1260</v>
       </c>
       <c r="K599" s="0" t="s">
         <v>286</v>
@@ -25249,10 +25249,10 @@
         <v>1670</v>
       </c>
       <c r="I600" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J600" s="0" t="s">
-        <v>1671</v>
+        <v>1263</v>
       </c>
       <c r="K600" s="0" t="s">
         <v>286</v>
@@ -25263,7 +25263,7 @@
         <v>284</v>
       </c>
       <c r="B601" s="0" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C601" s="0" t="s">
         <v>13</v>
@@ -25272,7 +25272,7 @@
         <v>285</v>
       </c>
       <c r="E601" s="0" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="F601" s="0" t="s">
         <v>309</v>
@@ -25281,13 +25281,13 @@
         <v>1386</v>
       </c>
       <c r="H601" s="0" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I601" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J601" s="0" t="s">
         <v>1674</v>
-      </c>
-      <c r="I601" s="0" t="s">
-        <v>1544</v>
-      </c>
-      <c r="J601" s="0" t="s">
-        <v>1263</v>
       </c>
       <c r="K601" s="0" t="s">
         <v>286</v>
@@ -25316,13 +25316,13 @@
         <v>1386</v>
       </c>
       <c r="H602" s="0" t="s">
+        <v>1670</v>
+      </c>
+      <c r="I602" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J602" s="0" t="s">
         <v>1677</v>
-      </c>
-      <c r="I602" s="0" t="s">
-        <v>1544</v>
-      </c>
-      <c r="J602" s="0" t="s">
-        <v>1678</v>
       </c>
       <c r="K602" s="0" t="s">
         <v>286</v>
@@ -25333,7 +25333,7 @@
         <v>284</v>
       </c>
       <c r="B603" s="0" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C603" s="0" t="s">
         <v>13</v>
@@ -25342,7 +25342,7 @@
         <v>285</v>
       </c>
       <c r="E603" s="0" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="F603" s="0" t="s">
         <v>309</v>
@@ -25351,10 +25351,10 @@
         <v>1386</v>
       </c>
       <c r="H603" s="0" t="s">
-        <v>1674</v>
+        <v>1680</v>
       </c>
       <c r="I603" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J603" s="0" t="s">
         <v>1681</v>
@@ -25389,7 +25389,7 @@
         <v>1684</v>
       </c>
       <c r="I604" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J604" s="0" t="s">
         <v>1685</v>
@@ -25424,7 +25424,7 @@
         <v>1688</v>
       </c>
       <c r="I605" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J605" s="0" t="s">
         <v>1689</v>
@@ -25459,7 +25459,7 @@
         <v>1692</v>
       </c>
       <c r="I606" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J606" s="0" t="s">
         <v>1693</v>
@@ -25494,7 +25494,7 @@
         <v>1696</v>
       </c>
       <c r="I607" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J607" s="0" t="s">
         <v>1697</v>
@@ -25529,7 +25529,7 @@
         <v>1700</v>
       </c>
       <c r="I608" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J608" s="0" t="s">
         <v>1701</v>
@@ -25555,7 +25555,7 @@
         <v>1703</v>
       </c>
       <c r="F609" s="0" t="s">
-        <v>309</v>
+        <v>28</v>
       </c>
       <c r="G609" s="0" t="s">
         <v>1386</v>
@@ -25564,7 +25564,7 @@
         <v>1704</v>
       </c>
       <c r="I609" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J609" s="0" t="s">
         <v>1705</v>
@@ -25590,7 +25590,7 @@
         <v>1707</v>
       </c>
       <c r="F610" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G610" s="0" t="s">
         <v>1386</v>
@@ -25599,7 +25599,7 @@
         <v>1708</v>
       </c>
       <c r="I610" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J610" s="0" t="s">
         <v>1709</v>
@@ -25625,7 +25625,7 @@
         <v>1711</v>
       </c>
       <c r="F611" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G611" s="0" t="s">
         <v>1386</v>
@@ -25634,7 +25634,7 @@
         <v>1712</v>
       </c>
       <c r="I611" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J611" s="0" t="s">
         <v>1713</v>
@@ -25669,7 +25669,7 @@
         <v>1716</v>
       </c>
       <c r="I612" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J612" s="0" t="s">
         <v>1717</v>
@@ -25695,7 +25695,7 @@
         <v>1719</v>
       </c>
       <c r="F613" s="0" t="s">
-        <v>28</v>
+        <v>309</v>
       </c>
       <c r="G613" s="0" t="s">
         <v>1386</v>
@@ -25704,7 +25704,7 @@
         <v>1720</v>
       </c>
       <c r="I613" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J613" s="0" t="s">
         <v>1721</v>
@@ -25730,7 +25730,7 @@
         <v>1723</v>
       </c>
       <c r="F614" s="0" t="s">
-        <v>309</v>
+        <v>153</v>
       </c>
       <c r="G614" s="0" t="s">
         <v>1386</v>
@@ -25739,7 +25739,7 @@
         <v>1724</v>
       </c>
       <c r="I614" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J614" s="0" t="s">
         <v>1725</v>
@@ -25774,7 +25774,7 @@
         <v>1728</v>
       </c>
       <c r="I615" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J615" s="0" t="s">
         <v>1729</v>
@@ -25794,25 +25794,25 @@
         <v>13</v>
       </c>
       <c r="D616" s="0" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E616" s="0" t="s">
         <v>1731</v>
       </c>
       <c r="F616" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="G616" s="0" t="s">
-        <v>1386</v>
+        <v>339</v>
+      </c>
+      <c r="G616" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H616" s="0" t="s">
         <v>1732</v>
       </c>
       <c r="I616" s="0" t="s">
-        <v>1544</v>
+        <v>341</v>
       </c>
       <c r="J616" s="0" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="K616" s="0" t="s">
         <v>286</v>
@@ -25823,7 +25823,7 @@
         <v>284</v>
       </c>
       <c r="B617" s="0" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C617" s="0" t="s">
         <v>13</v>
@@ -25832,7 +25832,7 @@
         <v>293</v>
       </c>
       <c r="E617" s="0" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="F617" s="0" t="s">
         <v>339</v>
@@ -25841,13 +25841,13 @@
         <v>0</v>
       </c>
       <c r="H617" s="0" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="I617" s="0" t="s">
         <v>341</v>
       </c>
       <c r="J617" s="0" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="K617" s="0" t="s">
         <v>286</v>
@@ -25905,7 +25905,7 @@
         <v>1742</v>
       </c>
       <c r="F619" s="0" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="G619" s="0" t="n">
         <v>0</v>
@@ -25917,7 +25917,7 @@
         <v>341</v>
       </c>
       <c r="J619" s="0" t="s">
-        <v>1744</v>
+        <v>1736</v>
       </c>
       <c r="K619" s="0" t="s">
         <v>286</v>
@@ -25928,7 +25928,7 @@
         <v>284</v>
       </c>
       <c r="B620" s="0" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="C620" s="0" t="s">
         <v>13</v>
@@ -25937,7 +25937,7 @@
         <v>293</v>
       </c>
       <c r="E620" s="0" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="F620" s="0" t="s">
         <v>352</v>
@@ -25946,13 +25946,13 @@
         <v>0</v>
       </c>
       <c r="H620" s="0" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="I620" s="0" t="s">
         <v>341</v>
       </c>
       <c r="J620" s="0" t="s">
-        <v>1740</v>
+        <v>1747</v>
       </c>
       <c r="K620" s="0" t="s">
         <v>286</v>
@@ -25963,7 +25963,7 @@
         <v>284</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>1748</v>
+        <v>350</v>
       </c>
       <c r="C621" s="0" t="s">
         <v>13</v>
@@ -25972,22 +25972,22 @@
         <v>293</v>
       </c>
       <c r="E621" s="0" t="s">
-        <v>1749</v>
+        <v>351</v>
       </c>
       <c r="F621" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="G621" s="0" t="n">
-        <v>0</v>
+      <c r="G621" s="0" t="s">
+        <v>1386</v>
       </c>
       <c r="H621" s="0" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="I621" s="0" t="s">
         <v>341</v>
       </c>
       <c r="J621" s="0" t="s">
-        <v>1751</v>
+        <v>351</v>
       </c>
       <c r="K621" s="0" t="s">
         <v>286</v>
@@ -25998,31 +25998,31 @@
         <v>284</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>350</v>
+        <v>1749</v>
       </c>
       <c r="C622" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D622" s="0" t="s">
-        <v>293</v>
+        <v>1750</v>
       </c>
       <c r="E622" s="0" t="s">
-        <v>351</v>
+        <v>1751</v>
       </c>
       <c r="F622" s="0" t="s">
-        <v>352</v>
+        <v>1752</v>
       </c>
       <c r="G622" s="0" t="s">
         <v>1386</v>
       </c>
       <c r="H622" s="0" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="I622" s="0" t="s">
-        <v>341</v>
+        <v>239</v>
       </c>
       <c r="J622" s="0" t="s">
-        <v>351</v>
+        <v>1754</v>
       </c>
       <c r="K622" s="0" t="s">
         <v>286</v>
@@ -26033,25 +26033,25 @@
         <v>284</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="C623" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D623" s="0" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="E623" s="0" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="F623" s="0" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="G623" s="0" t="s">
         <v>1386</v>
       </c>
       <c r="H623" s="0" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="I623" s="0" t="s">
         <v>239</v>
@@ -26063,98 +26063,98 @@
         <v>286</v>
       </c>
     </row>
-    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="B624" s="0" t="s">
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="B625" s="0" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C625" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D625" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="E625" s="0" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F625" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="G625" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H625" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="C624" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D624" s="0" t="s">
-        <v>1754</v>
-      </c>
-      <c r="E624" s="0" t="s">
-        <v>1760</v>
-      </c>
-      <c r="F624" s="0" t="s">
-        <v>1761</v>
-      </c>
-      <c r="G624" s="0" t="s">
-        <v>1386</v>
-      </c>
-      <c r="H624" s="0" t="s">
-        <v>1757</v>
-      </c>
-      <c r="I624" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="J624" s="0" t="s">
-        <v>1762</v>
-      </c>
-      <c r="K624" s="0" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="I625" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J625" s="0" t="s">
+        <v>1731</v>
+      </c>
+      <c r="K625" s="0" t="s">
+        <v>879</v>
+      </c>
+    </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
         <v>878</v>
       </c>
-      <c r="B626" s="0" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C626" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D626" s="0" t="s">
-        <v>831</v>
-      </c>
-      <c r="E626" s="0" t="s">
-        <v>1735</v>
-      </c>
-      <c r="F626" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="G626" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H626" s="2" t="s">
+      <c r="B626" s="3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="H626" s="0" t="s">
+        <v>1761</v>
+      </c>
+      <c r="I626" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B628" s="0" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C628" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D628" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E628" s="0" t="s">
         <v>1763</v>
       </c>
-      <c r="I626" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="J626" s="0" t="s">
-        <v>1735</v>
-      </c>
-      <c r="K626" s="0" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="0" t="s">
-        <v>878</v>
-      </c>
-      <c r="B627" s="3" t="s">
+      <c r="F628" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G628" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H628" s="0" t="s">
         <v>1764</v>
       </c>
-      <c r="H627" s="0" t="s">
+      <c r="I628" s="0" t="s">
         <v>1765</v>
       </c>
-      <c r="I627" s="0" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="J628" s="0" t="s">
+        <v>1766</v>
+      </c>
+      <c r="K628" s="0" t="s">
+        <v>967</v>
+      </c>
+    </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
         <v>1007</v>
       </c>
       <c r="B629" s="0" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C629" s="0" t="s">
         <v>13</v>
@@ -26163,7 +26163,7 @@
         <v>151</v>
       </c>
       <c r="E629" s="0" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="F629" s="0" t="s">
         <v>153</v>
@@ -26172,13 +26172,13 @@
         <v>1386</v>
       </c>
       <c r="H629" s="0" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="I629" s="0" t="s">
+        <v>1765</v>
+      </c>
+      <c r="J629" s="0" t="s">
         <v>1769</v>
-      </c>
-      <c r="J629" s="0" t="s">
-        <v>1770</v>
       </c>
       <c r="K629" s="0" t="s">
         <v>967</v>
@@ -26189,7 +26189,7 @@
         <v>1007</v>
       </c>
       <c r="B630" s="0" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C630" s="0" t="s">
         <v>13</v>
@@ -26198,7 +26198,7 @@
         <v>151</v>
       </c>
       <c r="E630" s="0" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="F630" s="0" t="s">
         <v>153</v>
@@ -26207,203 +26207,203 @@
         <v>1386</v>
       </c>
       <c r="H630" s="0" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="I630" s="0" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="J630" s="0" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="K630" s="0" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="0" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B631" s="0" t="s">
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="B632" s="0" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C632" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D632" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="E632" s="0" t="s">
         <v>1774</v>
       </c>
-      <c r="C631" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D631" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="E631" s="0" t="s">
+      <c r="F632" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G632" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H632" s="0" t="s">
         <v>1775</v>
       </c>
-      <c r="F631" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="G631" s="0" t="s">
-        <v>1386</v>
-      </c>
-      <c r="H631" s="0" t="s">
-        <v>1768</v>
-      </c>
-      <c r="I631" s="0" t="s">
-        <v>1769</v>
-      </c>
-      <c r="J631" s="0" t="s">
+      <c r="I632" s="0" t="s">
         <v>1776</v>
       </c>
-      <c r="K631" s="0" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="J632" s="0" t="s">
+        <v>1777</v>
+      </c>
+      <c r="K632" s="0" t="s">
+        <v>1778</v>
+      </c>
+    </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
         <v>922</v>
       </c>
       <c r="B633" s="0" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="C633" s="0" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D633" s="0" t="s">
         <v>928</v>
       </c>
       <c r="E633" s="0" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="F633" s="0" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G633" s="0" t="s">
         <v>1386</v>
       </c>
       <c r="H633" s="0" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="I633" s="0" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="J633" s="0" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="K633" s="0" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="0" t="s">
-        <v>922</v>
-      </c>
-      <c r="B634" s="0" t="s">
         <v>1783</v>
       </c>
-      <c r="C634" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D634" s="0" t="s">
-        <v>928</v>
-      </c>
-      <c r="E634" s="0" t="s">
+    </row>
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="B635" s="0" t="s">
         <v>1784</v>
       </c>
-      <c r="F634" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G634" s="0" t="s">
+      <c r="C635" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D635" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E635" s="0" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F635" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G635" s="0" t="s">
         <v>1386</v>
       </c>
-      <c r="H634" s="0" t="s">
-        <v>1785</v>
-      </c>
-      <c r="I634" s="0" t="s">
-        <v>1780</v>
-      </c>
-      <c r="J634" s="0" t="s">
+      <c r="H635" s="0" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I635" s="0" t="s">
         <v>1786</v>
       </c>
-      <c r="K634" s="0" t="s">
+      <c r="J635" s="0" t="s">
         <v>1787</v>
       </c>
-    </row>
-    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="0" t="s">
-        <v>936</v>
-      </c>
-      <c r="B636" s="0" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C636" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D636" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="E636" s="0" t="s">
-        <v>1489</v>
-      </c>
-      <c r="F636" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="G636" s="0" t="s">
+      <c r="K635" s="0" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="B637" s="0" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C637" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D637" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="E637" s="0" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F637" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="G637" s="0" t="s">
         <v>1386</v>
       </c>
-      <c r="H636" s="0" t="s">
-        <v>1105</v>
-      </c>
-      <c r="I636" s="0" t="s">
-        <v>1490</v>
-      </c>
-      <c r="J636" s="0" t="s">
-        <v>1491</v>
-      </c>
-      <c r="K636" s="0" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="B638" s="0" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C638" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D638" s="0" t="s">
-        <v>831</v>
-      </c>
-      <c r="E638" s="0" t="s">
+      <c r="H637" s="0" t="s">
+        <v>1791</v>
+      </c>
+      <c r="I637" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="J637" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="K637" s="0" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="B639" s="0" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C639" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D639" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="E639" s="0" t="s">
         <v>1790</v>
       </c>
-      <c r="F638" s="0" t="s">
+      <c r="F639" s="0" t="s">
         <v>678</v>
       </c>
-      <c r="G638" s="0" t="s">
+      <c r="G639" s="0" t="s">
         <v>1386</v>
       </c>
-      <c r="H638" s="0" t="s">
-        <v>1791</v>
-      </c>
-      <c r="I638" s="0" t="s">
+      <c r="H639" s="0" t="s">
+        <v>1793</v>
+      </c>
+      <c r="I639" s="0" t="s">
         <v>956</v>
       </c>
-      <c r="J638" s="0" t="s">
+      <c r="J639" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="K638" s="0" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="K639" s="0" t="s">
+        <v>685</v>
+      </c>
+    </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
         <v>684</v>
       </c>
       <c r="B640" s="0" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="C640" s="0" t="s">
         <v>13</v>
@@ -26412,25 +26412,25 @@
         <v>688</v>
       </c>
       <c r="E640" s="0" t="s">
-        <v>1790</v>
+        <v>1795</v>
       </c>
       <c r="F640" s="0" t="s">
         <v>678</v>
       </c>
-      <c r="G640" s="0" t="s">
-        <v>1386</v>
+      <c r="G640" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H640" s="0" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="I640" s="0" t="s">
-        <v>956</v>
+        <v>1540</v>
       </c>
       <c r="J640" s="0" t="s">
         <v>691</v>
       </c>
       <c r="K640" s="0" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26438,19 +26438,19 @@
         <v>684</v>
       </c>
       <c r="B641" s="0" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="C641" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D641" s="0" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="E641" s="0" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="F641" s="0" t="s">
-        <v>678</v>
+        <v>712</v>
       </c>
       <c r="G641" s="0" t="n">
         <v>0</v>
@@ -26459,64 +26459,64 @@
         <v>1796</v>
       </c>
       <c r="I641" s="0" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J641" s="0" t="s">
-        <v>691</v>
+        <v>1798</v>
       </c>
       <c r="K641" s="0" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="0" t="s">
-        <v>684</v>
-      </c>
-      <c r="B642" s="0" t="s">
-        <v>1797</v>
-      </c>
-      <c r="C642" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D642" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="E642" s="0" t="s">
-        <v>1798</v>
-      </c>
-      <c r="F642" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="G642" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H642" s="0" t="s">
-        <v>1796</v>
-      </c>
-      <c r="I642" s="0" t="s">
-        <v>1544</v>
-      </c>
-      <c r="J642" s="0" t="s">
-        <v>1798</v>
-      </c>
-      <c r="K642" s="0" t="s">
-        <v>692</v>
-      </c>
-    </row>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B644" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C644" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D644" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E644" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="F644" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="G644" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H644" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="I644" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="J644" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="K644" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>419</v>
+        <v>878</v>
       </c>
       <c r="B645" s="0" t="s">
         <v>350</v>
       </c>
       <c r="C645" s="0" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="D645" s="0" t="s">
-        <v>421</v>
+        <v>831</v>
       </c>
       <c r="E645" s="0" t="s">
         <v>351</v>
@@ -26537,7 +26537,7 @@
         <v>351</v>
       </c>
       <c r="K645" s="0" t="s">
-        <v>424</v>
+        <v>879</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26545,7 +26545,7 @@
         <v>878</v>
       </c>
       <c r="B646" s="0" t="s">
-        <v>350</v>
+        <v>1730</v>
       </c>
       <c r="C646" s="0" t="s">
         <v>69</v>
@@ -26554,102 +26554,102 @@
         <v>831</v>
       </c>
       <c r="E646" s="0" t="s">
-        <v>351</v>
+        <v>1731</v>
       </c>
       <c r="F646" s="0" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="G646" s="0" t="s">
         <v>1386</v>
       </c>
       <c r="H646" s="0" t="s">
-        <v>353</v>
+        <v>1799</v>
       </c>
       <c r="I646" s="0" t="s">
         <v>341</v>
       </c>
       <c r="J646" s="0" t="s">
-        <v>351</v>
+        <v>1731</v>
       </c>
       <c r="K646" s="0" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="0" t="s">
-        <v>878</v>
-      </c>
-      <c r="B647" s="0" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C647" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D647" s="0" t="s">
-        <v>831</v>
-      </c>
-      <c r="E647" s="0" t="s">
-        <v>1735</v>
-      </c>
-      <c r="F647" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="G647" s="0" t="s">
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B648" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C648" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D648" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E648" s="0" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F648" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G648" s="0" t="s">
         <v>1386</v>
       </c>
-      <c r="H647" s="0" t="s">
-        <v>1799</v>
-      </c>
-      <c r="I647" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="J647" s="0" t="s">
-        <v>1735</v>
-      </c>
-      <c r="K647" s="0" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="0" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B649" s="0" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C649" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D649" s="0" t="s">
+      <c r="H648" s="0" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I648" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J648" s="0" t="s">
+        <v>1107</v>
+      </c>
+      <c r="K648" s="0" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B650" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C650" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D650" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="E649" s="0" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F649" s="0" t="s">
+      <c r="E650" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F650" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="G649" s="0" t="s">
+      <c r="G650" s="0" t="s">
         <v>1386</v>
       </c>
-      <c r="H649" s="0" t="s">
-        <v>1105</v>
-      </c>
-      <c r="I649" s="0" t="s">
-        <v>1106</v>
-      </c>
-      <c r="J649" s="0" t="s">
-        <v>1107</v>
-      </c>
-      <c r="K649" s="0" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="H650" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I650" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="J650" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="K650" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
-        <v>1007</v>
+        <v>936</v>
       </c>
       <c r="B651" s="0" t="s">
         <v>1012</v>
@@ -26661,7 +26661,7 @@
         <v>151</v>
       </c>
       <c r="E651" s="0" t="s">
-        <v>1013</v>
+        <v>1800</v>
       </c>
       <c r="F651" s="0" t="s">
         <v>153</v>
@@ -26682,86 +26682,86 @@
         <v>20</v>
       </c>
     </row>
-    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="0" t="s">
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="B654" s="0" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C654" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D654" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E654" s="0" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F654" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G654" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H654" s="0" t="s">
+        <v>1803</v>
+      </c>
+      <c r="I654" s="0" t="s">
+        <v>1804</v>
+      </c>
+      <c r="J654" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="K654" s="0" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="0" t="s">
         <v>936</v>
       </c>
-      <c r="B652" s="0" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C652" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D652" s="0" t="s">
+      <c r="B657" s="0" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C657" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D657" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="E652" s="0" t="s">
-        <v>1800</v>
-      </c>
-      <c r="F652" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="G652" s="0" t="s">
+      <c r="E657" s="0" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F657" s="0" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G657" s="0" t="s">
         <v>1386</v>
       </c>
-      <c r="H652" s="0" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I652" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="J652" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="K652" s="0" t="s">
+      <c r="H657" s="0" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I657" s="0" t="s">
+        <v>1427</v>
+      </c>
+      <c r="J657" s="0" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K657" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="B655" s="0" t="s">
-        <v>1801</v>
-      </c>
-      <c r="C655" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D655" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="E655" s="0" t="s">
-        <v>1802</v>
-      </c>
-      <c r="F655" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="G655" s="0" t="s">
-        <v>1386</v>
-      </c>
-      <c r="H655" s="0" t="s">
-        <v>1803</v>
-      </c>
-      <c r="I655" s="0" t="s">
-        <v>1804</v>
-      </c>
-      <c r="J655" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="K655" s="0" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
         <v>936</v>
       </c>
       <c r="B658" s="0" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="C658" s="0" t="n">
         <v>1</v>
@@ -26770,7 +26770,7 @@
         <v>151</v>
       </c>
       <c r="E658" s="0" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="F658" s="0" t="s">
         <v>1461</v>
@@ -26785,7 +26785,7 @@
         <v>1427</v>
       </c>
       <c r="J658" s="0" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="K658" s="0" t="s">
         <v>20</v>
@@ -26796,7 +26796,7 @@
         <v>936</v>
       </c>
       <c r="B659" s="0" t="s">
-        <v>1463</v>
+        <v>1530</v>
       </c>
       <c r="C659" s="0" t="n">
         <v>1</v>
@@ -26805,10 +26805,10 @@
         <v>151</v>
       </c>
       <c r="E659" s="0" t="s">
-        <v>1806</v>
+        <v>1531</v>
       </c>
       <c r="F659" s="0" t="s">
-        <v>1461</v>
+        <v>804</v>
       </c>
       <c r="G659" s="0" t="s">
         <v>1386</v>
@@ -26820,7 +26820,7 @@
         <v>1427</v>
       </c>
       <c r="J659" s="0" t="s">
-        <v>1465</v>
+        <v>1532</v>
       </c>
       <c r="K659" s="0" t="s">
         <v>20</v>
@@ -26831,7 +26831,7 @@
         <v>936</v>
       </c>
       <c r="B660" s="0" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C660" s="0" t="n">
         <v>1</v>
@@ -26840,7 +26840,7 @@
         <v>151</v>
       </c>
       <c r="E660" s="0" t="s">
-        <v>1535</v>
+        <v>1807</v>
       </c>
       <c r="F660" s="0" t="s">
         <v>804</v>
@@ -26855,7 +26855,7 @@
         <v>1427</v>
       </c>
       <c r="J660" s="0" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="K660" s="0" t="s">
         <v>20</v>
@@ -26866,7 +26866,7 @@
         <v>936</v>
       </c>
       <c r="B661" s="0" t="s">
-        <v>1537</v>
+        <v>1424</v>
       </c>
       <c r="C661" s="0" t="n">
         <v>1</v>
@@ -26875,10 +26875,10 @@
         <v>151</v>
       </c>
       <c r="E661" s="0" t="s">
-        <v>1807</v>
-      </c>
-      <c r="F661" s="0" t="s">
-        <v>804</v>
+        <v>1425</v>
+      </c>
+      <c r="F661" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G661" s="0" t="s">
         <v>1386</v>
@@ -26890,7 +26890,7 @@
         <v>1427</v>
       </c>
       <c r="J661" s="0" t="s">
-        <v>1539</v>
+        <v>1428</v>
       </c>
       <c r="K661" s="0" t="s">
         <v>20</v>
@@ -26901,7 +26901,7 @@
         <v>936</v>
       </c>
       <c r="B662" s="0" t="s">
-        <v>1424</v>
+        <v>1433</v>
       </c>
       <c r="C662" s="0" t="n">
         <v>1</v>
@@ -26910,10 +26910,10 @@
         <v>151</v>
       </c>
       <c r="E662" s="0" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F662" s="0" t="n">
-        <v>1</v>
+        <v>1808</v>
+      </c>
+      <c r="F662" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="G662" s="0" t="s">
         <v>1386</v>
@@ -26925,7 +26925,7 @@
         <v>1427</v>
       </c>
       <c r="J662" s="0" t="s">
-        <v>1428</v>
+        <v>1435</v>
       </c>
       <c r="K662" s="0" t="s">
         <v>20</v>
@@ -26936,7 +26936,7 @@
         <v>936</v>
       </c>
       <c r="B663" s="0" t="s">
-        <v>1433</v>
+        <v>1470</v>
       </c>
       <c r="C663" s="0" t="n">
         <v>1</v>
@@ -26945,10 +26945,10 @@
         <v>151</v>
       </c>
       <c r="E663" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="F663" s="0" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="G663" s="0" t="s">
         <v>1386</v>
@@ -26960,7 +26960,7 @@
         <v>1427</v>
       </c>
       <c r="J663" s="0" t="s">
-        <v>1435</v>
+        <v>1810</v>
       </c>
       <c r="K663" s="0" t="s">
         <v>20</v>
@@ -26971,7 +26971,7 @@
         <v>936</v>
       </c>
       <c r="B664" s="0" t="s">
-        <v>1470</v>
+        <v>1516</v>
       </c>
       <c r="C664" s="0" t="n">
         <v>1</v>
@@ -26980,7 +26980,7 @@
         <v>151</v>
       </c>
       <c r="E664" s="0" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="F664" s="0" t="s">
         <v>153</v>
@@ -26995,7 +26995,7 @@
         <v>1427</v>
       </c>
       <c r="J664" s="0" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="K664" s="0" t="s">
         <v>20</v>
@@ -27006,7 +27006,7 @@
         <v>936</v>
       </c>
       <c r="B665" s="0" t="s">
-        <v>1520</v>
+        <v>1450</v>
       </c>
       <c r="C665" s="0" t="n">
         <v>1</v>
@@ -27015,10 +27015,10 @@
         <v>151</v>
       </c>
       <c r="E665" s="0" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="F665" s="0" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="G665" s="0" t="s">
         <v>1386</v>
@@ -27030,7 +27030,7 @@
         <v>1427</v>
       </c>
       <c r="J665" s="0" t="s">
-        <v>1812</v>
+        <v>1452</v>
       </c>
       <c r="K665" s="0" t="s">
         <v>20</v>
@@ -27041,7 +27041,7 @@
         <v>936</v>
       </c>
       <c r="B666" s="0" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="C666" s="0" t="n">
         <v>1</v>
@@ -27050,7 +27050,7 @@
         <v>151</v>
       </c>
       <c r="E666" s="0" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="F666" s="0" t="s">
         <v>28</v>
@@ -27065,7 +27065,7 @@
         <v>1427</v>
       </c>
       <c r="J666" s="0" t="s">
-        <v>1452</v>
+        <v>1815</v>
       </c>
       <c r="K666" s="0" t="s">
         <v>20</v>
@@ -27076,7 +27076,7 @@
         <v>936</v>
       </c>
       <c r="B667" s="0" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="C667" s="0" t="n">
         <v>1</v>
@@ -27085,7 +27085,7 @@
         <v>151</v>
       </c>
       <c r="E667" s="0" t="s">
-        <v>1814</v>
+        <v>1457</v>
       </c>
       <c r="F667" s="0" t="s">
         <v>28</v>
@@ -27100,7 +27100,7 @@
         <v>1427</v>
       </c>
       <c r="J667" s="0" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="K667" s="0" t="s">
         <v>20</v>
@@ -27111,7 +27111,7 @@
         <v>936</v>
       </c>
       <c r="B668" s="0" t="s">
-        <v>1456</v>
+        <v>1436</v>
       </c>
       <c r="C668" s="0" t="n">
         <v>1</v>
@@ -27120,7 +27120,7 @@
         <v>151</v>
       </c>
       <c r="E668" s="0" t="s">
-        <v>1457</v>
+        <v>1437</v>
       </c>
       <c r="F668" s="0" t="s">
         <v>28</v>
@@ -27135,7 +27135,7 @@
         <v>1427</v>
       </c>
       <c r="J668" s="0" t="s">
-        <v>1816</v>
+        <v>1438</v>
       </c>
       <c r="K668" s="0" t="s">
         <v>20</v>
@@ -27146,7 +27146,7 @@
         <v>936</v>
       </c>
       <c r="B669" s="0" t="s">
-        <v>1436</v>
+        <v>1510</v>
       </c>
       <c r="C669" s="0" t="n">
         <v>1</v>
@@ -27155,7 +27155,7 @@
         <v>151</v>
       </c>
       <c r="E669" s="0" t="s">
-        <v>1437</v>
+        <v>1817</v>
       </c>
       <c r="F669" s="0" t="s">
         <v>28</v>
@@ -27170,7 +27170,7 @@
         <v>1427</v>
       </c>
       <c r="J669" s="0" t="s">
-        <v>1438</v>
+        <v>1512</v>
       </c>
       <c r="K669" s="0" t="s">
         <v>20</v>
@@ -27181,7 +27181,7 @@
         <v>936</v>
       </c>
       <c r="B670" s="0" t="s">
-        <v>1514</v>
+        <v>1176</v>
       </c>
       <c r="C670" s="0" t="n">
         <v>1</v>
@@ -27190,7 +27190,7 @@
         <v>151</v>
       </c>
       <c r="E670" s="0" t="s">
-        <v>1817</v>
+        <v>1177</v>
       </c>
       <c r="F670" s="0" t="s">
         <v>28</v>
@@ -27205,7 +27205,7 @@
         <v>1427</v>
       </c>
       <c r="J670" s="0" t="s">
-        <v>1516</v>
+        <v>1180</v>
       </c>
       <c r="K670" s="0" t="s">
         <v>20</v>
@@ -27216,19 +27216,19 @@
         <v>936</v>
       </c>
       <c r="B671" s="0" t="s">
-        <v>1176</v>
+        <v>1485</v>
       </c>
       <c r="C671" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D671" s="0" t="s">
-        <v>151</v>
+        <v>963</v>
       </c>
       <c r="E671" s="0" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F671" s="0" t="s">
-        <v>28</v>
+        <v>1818</v>
+      </c>
+      <c r="F671" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G671" s="0" t="s">
         <v>1386</v>
@@ -27240,7 +27240,7 @@
         <v>1427</v>
       </c>
       <c r="J671" s="0" t="s">
-        <v>1180</v>
+        <v>1487</v>
       </c>
       <c r="K671" s="0" t="s">
         <v>20</v>
@@ -27251,7 +27251,7 @@
         <v>936</v>
       </c>
       <c r="B672" s="0" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="C672" s="0" t="n">
         <v>1</v>
@@ -27260,7 +27260,7 @@
         <v>963</v>
       </c>
       <c r="E672" s="0" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="F672" s="0" t="n">
         <v>1</v>
@@ -27275,7 +27275,7 @@
         <v>1427</v>
       </c>
       <c r="J672" s="0" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="K672" s="0" t="s">
         <v>20</v>
@@ -27286,19 +27286,19 @@
         <v>936</v>
       </c>
       <c r="B673" s="0" t="s">
-        <v>1482</v>
+        <v>1443</v>
       </c>
       <c r="C673" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D673" s="0" t="s">
-        <v>963</v>
+        <v>1444</v>
       </c>
       <c r="E673" s="0" t="s">
-        <v>1819</v>
-      </c>
-      <c r="F673" s="0" t="n">
-        <v>1</v>
+        <v>1820</v>
+      </c>
+      <c r="F673" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="G673" s="0" t="s">
         <v>1386</v>
@@ -27310,7 +27310,7 @@
         <v>1427</v>
       </c>
       <c r="J673" s="0" t="s">
-        <v>1484</v>
+        <v>1446</v>
       </c>
       <c r="K673" s="0" t="s">
         <v>20</v>
@@ -27321,19 +27321,19 @@
         <v>936</v>
       </c>
       <c r="B674" s="0" t="s">
-        <v>1443</v>
+        <v>1429</v>
       </c>
       <c r="C674" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D674" s="0" t="s">
-        <v>1444</v>
+        <v>151</v>
       </c>
       <c r="E674" s="0" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="F674" s="0" t="s">
-        <v>41</v>
+        <v>1431</v>
       </c>
       <c r="G674" s="0" t="s">
         <v>1386</v>
@@ -27345,7 +27345,7 @@
         <v>1427</v>
       </c>
       <c r="J674" s="0" t="s">
-        <v>1446</v>
+        <v>1432</v>
       </c>
       <c r="K674" s="0" t="s">
         <v>20</v>
@@ -27356,7 +27356,7 @@
         <v>936</v>
       </c>
       <c r="B675" s="0" t="s">
-        <v>1429</v>
+        <v>1488</v>
       </c>
       <c r="C675" s="0" t="n">
         <v>1</v>
@@ -27365,10 +27365,10 @@
         <v>151</v>
       </c>
       <c r="E675" s="0" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="F675" s="0" t="s">
-        <v>1431</v>
+        <v>28</v>
       </c>
       <c r="G675" s="0" t="s">
         <v>1386</v>
@@ -27380,7 +27380,7 @@
         <v>1427</v>
       </c>
       <c r="J675" s="0" t="s">
-        <v>1432</v>
+        <v>1823</v>
       </c>
       <c r="K675" s="0" t="s">
         <v>20</v>
@@ -27391,7 +27391,7 @@
         <v>936</v>
       </c>
       <c r="B676" s="0" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C676" s="0" t="n">
         <v>1</v>
@@ -27400,7 +27400,7 @@
         <v>151</v>
       </c>
       <c r="E676" s="0" t="s">
-        <v>1822</v>
+        <v>1492</v>
       </c>
       <c r="F676" s="0" t="s">
         <v>28</v>
@@ -27415,125 +27415,126 @@
         <v>1427</v>
       </c>
       <c r="J676" s="0" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="K676" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="0" t="s">
-        <v>936</v>
-      </c>
-      <c r="B677" s="0" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C677" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D677" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="E677" s="0" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F677" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G677" s="0" t="s">
-        <v>1386</v>
-      </c>
-      <c r="H677" s="0" t="s">
-        <v>1426</v>
-      </c>
-      <c r="I677" s="0" t="s">
-        <v>1427</v>
-      </c>
-      <c r="J677" s="0" t="s">
-        <v>1824</v>
-      </c>
-      <c r="K677" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="0" t="s">
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="0" t="s">
         <v>808</v>
       </c>
-      <c r="B679" s="0" t="s">
+      <c r="B678" s="0" t="s">
         <v>1825</v>
       </c>
-      <c r="C679" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D679" s="0" t="s">
+      <c r="C678" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D678" s="0" t="s">
         <v>848</v>
       </c>
-      <c r="E679" s="0" t="s">
+      <c r="E678" s="0" t="s">
         <v>1826</v>
       </c>
-      <c r="F679" s="0" t="s">
+      <c r="F678" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="G679" s="0" t="str">
+      <c r="G678" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a70b4e-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H679" s="2" t="s">
+      <c r="H678" s="2" t="s">
         <v>1827</v>
       </c>
-      <c r="I679" s="0" t="s">
+      <c r="I678" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="J679" s="0" t="s">
+      <c r="J678" s="0" t="s">
         <v>1828</v>
       </c>
-      <c r="K679" s="0" t="s">
+      <c r="K678" s="0" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="2" t="s">
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="B681" s="2" t="s">
+      <c r="B680" s="2" t="s">
         <v>1829</v>
       </c>
-      <c r="C681" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D681" s="2" t="s">
+      <c r="C680" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D680" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E681" s="2" t="s">
+      <c r="E680" s="2" t="s">
         <v>1830</v>
       </c>
-      <c r="F681" s="2" t="s">
+      <c r="F680" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G681" s="2" t="str">
+      <c r="G680" s="2" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f0bf4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H681" s="2" t="s">
+      <c r="H680" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="I681" s="2" t="s">
+      <c r="I680" s="2" t="s">
         <v>1832</v>
       </c>
-      <c r="J681" s="2" t="s">
+      <c r="J680" s="2" t="s">
         <v>1833</v>
       </c>
-      <c r="K681" s="2" t="s">
+      <c r="K680" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B682" s="0" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C682" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D682" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E682" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="F682" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="G682" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9bb9a503065dfbd30c9bbe5c3c6abf99.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H682" s="0" t="s">
+        <v>1835</v>
+      </c>
+      <c r="I682" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="J682" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="K682" s="0" t="s">
+        <v>733</v>
+      </c>
+    </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
-        <v>727</v>
+        <v>808</v>
       </c>
       <c r="B683" s="0" t="s">
         <v>1834</v>
@@ -27542,7 +27543,7 @@
         <v>13</v>
       </c>
       <c r="D683" s="0" t="s">
-        <v>421</v>
+        <v>831</v>
       </c>
       <c r="E683" s="0" t="s">
         <v>689</v>
@@ -27564,45 +27565,10 @@
         <v>691</v>
       </c>
       <c r="K683" s="0" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="B684" s="0" t="s">
-        <v>1834</v>
-      </c>
-      <c r="C684" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D684" s="0" t="s">
-        <v>831</v>
-      </c>
-      <c r="E684" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="F684" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="G684" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9bb9a503065dfbd30c9bbe5c3c6abf99.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H684" s="0" t="s">
-        <v>1835</v>
-      </c>
-      <c r="I684" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="J684" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="K684" s="0" t="s">
         <v>814</v>
       </c>
     </row>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
